--- a/Code/Results/Cases/Case_0_95/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_95/res_line/loading_percent.xlsx
@@ -420,23 +420,20 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>11.66254512136135</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>22.34448744111766</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10.13618087874662</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>174.9662548410596</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4.415921712667107</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +442,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>19.12160206966764</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
+        <v>7.649282490006194</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +455,805 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>11.74147434436556</v>
+      </c>
+      <c r="D3">
+        <v>22.27428774284569</v>
+      </c>
+      <c r="E3">
+        <v>10.18402179826265</v>
+      </c>
+      <c r="F3">
+        <v>174.928036859048</v>
+      </c>
+      <c r="G3">
+        <v>4.443193060809722</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>19.23698761066094</v>
+      </c>
+      <c r="L3">
+        <v>7.661108377489807</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>11.79275934362641</v>
+      </c>
+      <c r="D4">
+        <v>22.24258562296508</v>
+      </c>
+      <c r="E4">
+        <v>10.21449137674454</v>
+      </c>
+      <c r="F4">
+        <v>174.9852267018449</v>
+      </c>
+      <c r="G4">
+        <v>4.460508550914803</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>19.31337444699822</v>
+      </c>
+      <c r="L4">
+        <v>7.668939944485202</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>11.8143709701345</v>
+      </c>
+      <c r="D5">
+        <v>22.23246126444591</v>
+      </c>
+      <c r="E5">
+        <v>10.22719013640029</v>
+      </c>
+      <c r="F5">
+        <v>175.0283150049598</v>
+      </c>
+      <c r="G5">
+        <v>4.467712795967247</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>19.34588776704227</v>
+      </c>
+      <c r="L5">
+        <v>7.672274286151564</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>11.81800268751746</v>
+      </c>
+      <c r="D6">
+        <v>22.23094679594449</v>
+      </c>
+      <c r="E6">
+        <v>10.22931598940878</v>
+      </c>
+      <c r="F6">
+        <v>175.0366502734163</v>
+      </c>
+      <c r="G6">
+        <v>4.468918123996499</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>19.35137001611992</v>
+      </c>
+      <c r="L6">
+        <v>7.672836568635777</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>11.79304791650257</v>
+      </c>
+      <c r="D7">
+        <v>22.242437862695</v>
+      </c>
+      <c r="E7">
+        <v>10.21466148547255</v>
+      </c>
+      <c r="F7">
+        <v>174.9857283550634</v>
+      </c>
+      <c r="G7">
+        <v>4.46060510467434</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>19.31380733480923</v>
+      </c>
+      <c r="L7">
+        <v>7.668984334568256</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>11.68917594757626</v>
+      </c>
+      <c r="D8">
+        <v>22.31787267871319</v>
+      </c>
+      <c r="E8">
+        <v>10.1524533601637</v>
+      </c>
+      <c r="F8">
+        <v>174.9360331438183</v>
+      </c>
+      <c r="G8">
+        <v>4.425209213700734</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>19.16023224699303</v>
+      </c>
+      <c r="L8">
+        <v>7.653241329819875</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>11.50774295388905</v>
+      </c>
+      <c r="D9">
+        <v>22.55955049512935</v>
+      </c>
+      <c r="E9">
+        <v>10.03882411757269</v>
+      </c>
+      <c r="F9">
+        <v>175.5016999555411</v>
+      </c>
+      <c r="G9">
+        <v>4.360107908680453</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>18.90342467914975</v>
+      </c>
+      <c r="L9">
+        <v>7.626922533483434</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>11.38782890154694</v>
+      </c>
+      <c r="D10">
+        <v>22.7989126730609</v>
+      </c>
+      <c r="E10">
+        <v>9.959945406790203</v>
+      </c>
+      <c r="F10">
+        <v>176.3548742130388</v>
+      </c>
+      <c r="G10">
+        <v>4.314575556940111</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>18.74240930814801</v>
+      </c>
+      <c r="L10">
+        <v>7.610405673988442</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>11.33614321167684</v>
+      </c>
+      <c r="D11">
+        <v>22.92227645374696</v>
+      </c>
+      <c r="E11">
+        <v>9.924941674271993</v>
+      </c>
+      <c r="F11">
+        <v>176.8457279454548</v>
+      </c>
+      <c r="G11">
+        <v>4.294279864777617</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>18.67532653254536</v>
+      </c>
+      <c r="L11">
+        <v>7.603515740145358</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>11.31697981231573</v>
+      </c>
+      <c r="D12">
+        <v>22.97116418697729</v>
+      </c>
+      <c r="E12">
+        <v>9.911802118500622</v>
+      </c>
+      <c r="F12">
+        <v>177.0470544120424</v>
+      </c>
+      <c r="G12">
+        <v>4.286647001386496</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>18.65082601590785</v>
+      </c>
+      <c r="L12">
+        <v>7.600997562091417</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>11.32108885708056</v>
+      </c>
+      <c r="D13">
+        <v>22.96053720812994</v>
+      </c>
+      <c r="E13">
+        <v>9.914626997511979</v>
+      </c>
+      <c r="F13">
+        <v>177.0029967214785</v>
+      </c>
+      <c r="G13">
+        <v>4.288288656598113</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>18.6560622378727</v>
+      </c>
+      <c r="L13">
+        <v>7.601535833386071</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>11.33455845040596</v>
+      </c>
+      <c r="D14">
+        <v>22.92625439587913</v>
+      </c>
+      <c r="E14">
+        <v>9.923858423458361</v>
+      </c>
+      <c r="F14">
+        <v>176.861977502713</v>
+      </c>
+      <c r="G14">
+        <v>4.293650893304161</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>18.67329267945281</v>
+      </c>
+      <c r="L14">
+        <v>7.603306739026852</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>11.34286212106699</v>
+      </c>
+      <c r="D15">
+        <v>22.90554090257666</v>
+      </c>
+      <c r="E15">
+        <v>9.929527656831267</v>
+      </c>
+      <c r="F15">
+        <v>176.7776321512263</v>
+      </c>
+      <c r="G15">
+        <v>4.29694204855522</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>18.68396482976545</v>
+      </c>
+      <c r="L15">
+        <v>7.604403345169879</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>11.39126405756921</v>
+      </c>
+      <c r="D16">
+        <v>22.79114951006647</v>
+      </c>
+      <c r="E16">
+        <v>9.962249766534285</v>
+      </c>
+      <c r="F16">
+        <v>176.3249200497977</v>
+      </c>
+      <c r="G16">
+        <v>4.315909713653949</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>18.74691867684454</v>
+      </c>
+      <c r="L16">
+        <v>7.610868596665424</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>11.42168847014281</v>
+      </c>
+      <c r="D17">
+        <v>22.7247449126319</v>
+      </c>
+      <c r="E17">
+        <v>9.982541409828407</v>
+      </c>
+      <c r="F17">
+        <v>176.0739784520571</v>
+      </c>
+      <c r="G17">
+        <v>4.32764762739659</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>18.78712829282841</v>
+      </c>
+      <c r="L17">
+        <v>7.61499536373351</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>11.43945752215313</v>
+      </c>
+      <c r="D18">
+        <v>22.68790765249936</v>
+      </c>
+      <c r="E18">
+        <v>9.994296021473835</v>
+      </c>
+      <c r="F18">
+        <v>175.9392710521856</v>
+      </c>
+      <c r="G18">
+        <v>4.334438711491365</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>18.81083492006429</v>
+      </c>
+      <c r="L18">
+        <v>7.617427592062141</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>11.44552023482198</v>
+      </c>
+      <c r="D19">
+        <v>22.67566555752403</v>
+      </c>
+      <c r="E19">
+        <v>9.998290565697951</v>
+      </c>
+      <c r="F19">
+        <v>175.8952950524967</v>
+      </c>
+      <c r="G19">
+        <v>4.33674509410771</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>18.81896058632703</v>
+      </c>
+      <c r="L19">
+        <v>7.618261136856861</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>11.41842184435585</v>
+      </c>
+      <c r="D20">
+        <v>22.73167271981758</v>
+      </c>
+      <c r="E20">
+        <v>9.980372773375422</v>
+      </c>
+      <c r="F20">
+        <v>176.0996904308432</v>
+      </c>
+      <c r="G20">
+        <v>4.326394043609358</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>18.78278786457804</v>
+      </c>
+      <c r="L20">
+        <v>7.614549987053509</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>11.33059103204932</v>
+      </c>
+      <c r="D21">
+        <v>22.9362643751503</v>
+      </c>
+      <c r="E21">
+        <v>9.921143883182804</v>
+      </c>
+      <c r="F21">
+        <v>176.9029733204401</v>
+      </c>
+      <c r="G21">
+        <v>4.292074506709478</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>18.66820705736375</v>
+      </c>
+      <c r="L21">
+        <v>7.60278410391518</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>11.27557020867262</v>
+      </c>
+      <c r="D22">
+        <v>23.0826865515004</v>
+      </c>
+      <c r="E22">
+        <v>9.883102441003743</v>
+      </c>
+      <c r="F22">
+        <v>177.5183718366498</v>
+      </c>
+      <c r="G22">
+        <v>4.269947803972324</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>18.59858981973119</v>
+      </c>
+      <c r="L22">
+        <v>7.595624883300286</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>11.30471892036538</v>
+      </c>
+      <c r="D23">
+        <v>23.00334381342784</v>
+      </c>
+      <c r="E23">
+        <v>9.903348564578181</v>
+      </c>
+      <c r="F23">
+        <v>177.1814142488232</v>
+      </c>
+      <c r="G23">
+        <v>4.281732117890314</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>18.63525806752318</v>
+      </c>
+      <c r="L23">
+        <v>7.599396912608479</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>11.41989782082709</v>
+      </c>
+      <c r="D24">
+        <v>22.72853649234075</v>
+      </c>
+      <c r="E24">
+        <v>9.981352936911705</v>
+      </c>
+      <c r="F24">
+        <v>176.0880363115552</v>
+      </c>
+      <c r="G24">
+        <v>4.326960654979376</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>18.78474833694874</v>
+      </c>
+      <c r="L24">
+        <v>7.614751156003124</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>11.55446144113338</v>
+      </c>
+      <c r="D25">
+        <v>22.48366100736939</v>
+      </c>
+      <c r="E25">
+        <v>10.06871733037007</v>
+      </c>
+      <c r="F25">
+        <v>175.2743259714923</v>
+      </c>
+      <c r="G25">
+        <v>4.377290582679744</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>18.96808986947164</v>
+      </c>
+      <c r="L25">
+        <v>7.633550875730008</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
